--- a/src/test/resources/testData/Scenario1.xlsx
+++ b/src/test/resources/testData/Scenario1.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FCB5D558-AC42-47EB-9120-A1B71C1D4D74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EclipseWorkspace\FlightReservationCucumberListener\src\test\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C32A4-0370-4007-AEA0-028BBB97538E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="6270" xr2:uid="{721C375F-ED2D-4458-B196-082AD99AE525}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="Scenario 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>fromCity</t>
   </si>
@@ -69,6 +73,12 @@
   </si>
   <si>
     <t>02:10</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -424,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BE2618-B27F-46A6-81E9-68DB28E151EB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +447,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -445,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -477,7 +487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -485,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -493,12 +503,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
